--- a/uploads/bio.xlsx
+++ b/uploads/bio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A4A166B-63BC-432F-B38B-7D9D6543E647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D1C6D5-EED4-4E27-B6C4-49F994A02522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1A172243-22C0-409B-8B9B-5F1A13F02F52}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>marks</t>
   </si>
@@ -62,6 +62,27 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>BTBTE6</t>
+  </si>
+  <si>
+    <t>BTBTE7</t>
+  </si>
+  <si>
+    <t>BTBTE8</t>
+  </si>
+  <si>
+    <t>BTBTE9</t>
+  </si>
+  <si>
+    <t>BTBT10</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -413,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76BB57F-8336-4042-95B6-AA27F8167588}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,6 +490,46 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
